--- a/Other/Pyecharts.xlsx
+++ b/Other/Pyecharts.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>宝马</t>
   </si>
@@ -92,9 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总计</t>
-  </si>
-  <si>
     <t>DS</t>
   </si>
   <si>
@@ -102,11 +100,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已预订售</t>
+    <t>品牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已预订</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>品牌</t>
+  </si>
+  <si>
+    <t>雷诺</t>
+  </si>
+  <si>
+    <t>讴歌</t>
+  </si>
+  <si>
+    <t>萨博</t>
+  </si>
+  <si>
+    <t>三菱</t>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,20 +493,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
@@ -494,7 +515,7 @@
         <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -547,7 +568,7 @@
         <v>314</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E3:E26" si="0">SUM(B4:D4)</f>
+        <f t="shared" ref="E4:E7" si="0">SUM(B4:D4)</f>
         <v>446</v>
       </c>
     </row>
@@ -603,348 +624,6 @@
       <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1">
-        <v>190</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1">
-        <v>191</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1">
-        <v>122</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1">
-        <v>112</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1">
-        <v>109</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1">
-        <v>77</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1">
-        <v>62</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1">
-        <v>47</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1">
-        <v>18</v>
-      </c>
-      <c r="D16" s="1">
-        <v>42</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1">
-        <v>45</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1">
-        <v>50</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1">
-        <v>44</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1">
-        <v>26</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>22</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1">
-        <v>20</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1">
-        <v>18</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1">
-        <v>14</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>16</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1">
-        <v>13</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -952,4 +631,260 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>